--- a/data/trans_orig/P79A3_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P79A3_2023-Habitat-trans_orig.xlsx
@@ -916,7 +916,7 @@
         <v>4415</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1054904455751341</v>
+        <v>0.105490445575134</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>0</v>
@@ -931,16 +931,16 @@
         <v>3754</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1457</v>
+        <v>1538</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>4458</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.8420810220611895</v>
+        <v>0.8420810220611896</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3268839727243468</v>
+        <v>0.3449304095570445</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -952,19 +952,19 @@
         <v>4451</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1484</v>
+        <v>1170</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>8632</v>
+        <v>8469</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.4020988697352697</v>
+        <v>0.4020988697352698</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1340285779631483</v>
+        <v>0.1057258525207713</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7797414626169071</v>
+        <v>0.7650129068812863</v>
       </c>
     </row>
     <row r="8">
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3001</v>
+        <v>2937</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1579189779388105</v>
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6731160272756532</v>
+        <v>0.6589274692491942</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -1023,19 +1023,19 @@
         <v>6619</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2438</v>
+        <v>2601</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>9586</v>
+        <v>9900</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5979011302647302</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.220258537383093</v>
+        <v>0.2349870931187136</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8659714220368517</v>
+        <v>0.8942741474792288</v>
       </c>
     </row>
     <row r="9">
@@ -1148,19 +1148,19 @@
         <v>5302</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2826</v>
+        <v>2435</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7357</v>
+        <v>6926</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.7206990669737672</v>
+        <v>0.7206990669737673</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3841589620434761</v>
+        <v>0.3309302592700196</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>1</v>
+        <v>0.9414181507759346</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1169,19 +1169,19 @@
         <v>6243</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2085</v>
+        <v>1976</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10866</v>
+        <v>11340</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4225676105043221</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1411077493006707</v>
+        <v>0.1337638485610864</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7354077248823224</v>
+        <v>0.7674912907068253</v>
       </c>
     </row>
     <row r="11">
@@ -1198,16 +1198,16 @@
         <v>6477</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2666</v>
+        <v>1110</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>7418</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8730962319205401</v>
+        <v>0.87309623192054</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3594257726908673</v>
+        <v>0.1495722726277337</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1219,19 +1219,19 @@
         <v>2055</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4531</v>
+        <v>4922</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2793009330262327</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0</v>
+        <v>0.05858184922406545</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6158410379565241</v>
+        <v>0.6690697407299804</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -1240,19 +1240,19 @@
         <v>8532</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3909</v>
+        <v>3435</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>12690</v>
+        <v>12799</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5774323894956778</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2645922751176775</v>
+        <v>0.2325087092931746</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8588922506993294</v>
+        <v>0.8662361514389133</v>
       </c>
     </row>
     <row r="12">
@@ -1344,19 +1344,19 @@
         <v>3030</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>852</v>
+        <v>880</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6587</v>
+        <v>6915</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.317759809931238</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08935610353722066</v>
+        <v>0.09229001373035353</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6907102589035995</v>
+        <v>0.725045815031588</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3449</v>
+        <v>3397</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2918691951561919</v>
@@ -1377,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7387191082191363</v>
+        <v>0.727592966453386</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -1386,19 +1386,19 @@
         <v>4394</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1771</v>
+        <v>1612</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8463</v>
+        <v>7939</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3092499704608266</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1246878617061528</v>
+        <v>0.1134783705409409</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5957237038050688</v>
+        <v>0.558795069708258</v>
       </c>
     </row>
     <row r="14">
@@ -1415,19 +1415,19 @@
         <v>6507</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2950</v>
+        <v>2622</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8685</v>
+        <v>8657</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6822401900687619</v>
+        <v>0.682240190068762</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3092897410964006</v>
+        <v>0.2749541849684118</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9106438964627793</v>
+        <v>0.9077099862696465</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -1436,7 +1436,7 @@
         <v>3306</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1220</v>
+        <v>1278</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>4669</v>
@@ -1445,7 +1445,7 @@
         <v>0.7081308048438082</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2613748682725099</v>
+        <v>0.273757769273678</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1457,19 +1457,19 @@
         <v>9813</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5744</v>
+        <v>6268</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12436</v>
+        <v>12595</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6907500295391733</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4042762961949313</v>
+        <v>0.4412049302917418</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8753121382938472</v>
+        <v>0.8865216294590591</v>
       </c>
     </row>
     <row r="15">
@@ -1561,19 +1561,19 @@
         <v>4669</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1505</v>
+        <v>1604</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10100</v>
+        <v>9997</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1915972259141038</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06175245821665759</v>
+        <v>0.06582226761861502</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4144314047783571</v>
+        <v>0.4102180077773293</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -1582,19 +1582,19 @@
         <v>10419</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6555</v>
+        <v>6798</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13643</v>
+        <v>13669</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5875074923935328</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3696347068214734</v>
+        <v>0.3833272499444576</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7692958389302559</v>
+        <v>0.7707667883795449</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -1603,19 +1603,19 @@
         <v>15088</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9307</v>
+        <v>8891</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>22353</v>
+        <v>22148</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3583459435200219</v>
+        <v>0.358345943520022</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2210396880691576</v>
+        <v>0.211155886355124</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5308818833818063</v>
+        <v>0.5260101808418316</v>
       </c>
     </row>
     <row r="17">
@@ -1632,19 +1632,19 @@
         <v>19702</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14271</v>
+        <v>14374</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>22866</v>
+        <v>22767</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8084027740858962</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5855685952216431</v>
+        <v>0.5897819922226711</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9382475417833427</v>
+        <v>0.9341777323813852</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -1653,19 +1653,19 @@
         <v>7315</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4091</v>
+        <v>4065</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11179</v>
+        <v>10936</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4124925076064671</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2307041610697441</v>
+        <v>0.2292332116204551</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6303652931785277</v>
+        <v>0.6166727500555425</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>24</v>
@@ -1674,19 +1674,19 @@
         <v>27017</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>19752</v>
+        <v>19957</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>32798</v>
+        <v>33214</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6416540564799781</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4691181166181936</v>
+        <v>0.4739898191581681</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7789603119308424</v>
+        <v>0.7888441136448763</v>
       </c>
     </row>
     <row r="18">
